--- a/data/pca/factorExposure/factorExposure_2019-06-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-06-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.1177017238494194</v>
+        <v>0.07827673832040451</v>
       </c>
       <c r="C2">
-        <v>0.01815875646273164</v>
+        <v>-0.01150701918787829</v>
       </c>
       <c r="D2">
-        <v>0.01021150827600186</v>
+        <v>0.03552713803758398</v>
       </c>
       <c r="E2">
-        <v>-0.1095148756138812</v>
+        <v>-0.1341922380235367</v>
       </c>
       <c r="F2">
-        <v>-0.05791408696412266</v>
+        <v>-0.0189608821773079</v>
       </c>
       <c r="G2">
-        <v>0.09080543030294828</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.07737631305378335</v>
+      </c>
+      <c r="H2">
+        <v>-0.08354874037791898</v>
+      </c>
+      <c r="I2">
+        <v>-0.07700396778507955</v>
+      </c>
+      <c r="J2">
+        <v>0.03820874295818599</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.2038466369904638</v>
+        <v>0.1607404101927841</v>
       </c>
       <c r="C3">
-        <v>-0.07338562954358803</v>
+        <v>-0.08330364667842904</v>
       </c>
       <c r="D3">
-        <v>-0.1147051599606801</v>
+        <v>-0.04281454356886519</v>
       </c>
       <c r="E3">
-        <v>-0.3056217030074551</v>
+        <v>-0.3541842685956105</v>
       </c>
       <c r="F3">
-        <v>0.04263784121170993</v>
+        <v>-0.1347674367179262</v>
       </c>
       <c r="G3">
-        <v>0.3193391428845814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.01991851851177438</v>
+      </c>
+      <c r="H3">
+        <v>-0.2731801230051452</v>
+      </c>
+      <c r="I3">
+        <v>-0.1570709406539421</v>
+      </c>
+      <c r="J3">
+        <v>-0.05522125094146316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.09677958764719904</v>
+        <v>0.07347813238214346</v>
       </c>
       <c r="C4">
-        <v>-0.01473694006516464</v>
+        <v>-0.02834227183556082</v>
       </c>
       <c r="D4">
-        <v>-0.01052984533055154</v>
+        <v>0.02323131691481422</v>
       </c>
       <c r="E4">
-        <v>-0.09296483660445083</v>
+        <v>-0.08464667770037403</v>
       </c>
       <c r="F4">
-        <v>-0.03092883562048242</v>
+        <v>-0.05917475732283034</v>
       </c>
       <c r="G4">
-        <v>0.02488958925964534</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03370345047318934</v>
+      </c>
+      <c r="H4">
+        <v>-0.03918663985153645</v>
+      </c>
+      <c r="I4">
+        <v>-0.0131305058390085</v>
+      </c>
+      <c r="J4">
+        <v>-0.0443220057031718</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.009951067067423774</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.00398601430791645</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.001716971510029378</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.00495629113860531</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.002017551546080301</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01333146936121078</v>
+      </c>
+      <c r="H6">
+        <v>-0.004833484717392979</v>
+      </c>
+      <c r="I6">
+        <v>-0.002713042968753888</v>
+      </c>
+      <c r="J6">
+        <v>-0.001060131664534156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-0.04145851140527228</v>
+        <v>0.03520138361488025</v>
       </c>
       <c r="C7">
-        <v>-0.001817106055623314</v>
+        <v>-0.01427685548297708</v>
       </c>
       <c r="D7">
-        <v>0.01833699460433162</v>
+        <v>0.0170921241376598</v>
       </c>
       <c r="E7">
-        <v>-0.07291072629899582</v>
+        <v>-0.05644084264015595</v>
       </c>
       <c r="F7">
-        <v>0.05457032124216578</v>
+        <v>-0.03267069246599006</v>
       </c>
       <c r="G7">
-        <v>0.02072990797487422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.01586599337879155</v>
+      </c>
+      <c r="H7">
+        <v>-0.04388409908325373</v>
+      </c>
+      <c r="I7">
+        <v>0.004756736900878959</v>
+      </c>
+      <c r="J7">
+        <v>-0.03272689075455087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>-0.03993610666313027</v>
+        <v>0.03151489604308901</v>
       </c>
       <c r="C8">
-        <v>-0.03120333602301832</v>
+        <v>-0.03329977553214691</v>
       </c>
       <c r="D8">
-        <v>-0.01430482460146638</v>
+        <v>0.007644846163440279</v>
       </c>
       <c r="E8">
-        <v>-0.07069828458048036</v>
+        <v>-0.07559290254613668</v>
       </c>
       <c r="F8">
-        <v>0.009097756747738434</v>
+        <v>-0.05221373002660677</v>
       </c>
       <c r="G8">
-        <v>0.05083917840739406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.002745021868961859</v>
+      </c>
+      <c r="H8">
+        <v>-0.05886378802419612</v>
+      </c>
+      <c r="I8">
+        <v>-0.03514572442777194</v>
+      </c>
+      <c r="J8">
+        <v>-0.02510305450168227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.084802714081487</v>
+        <v>0.06280529844030597</v>
       </c>
       <c r="C9">
-        <v>-0.01654089403916095</v>
+        <v>-0.02724995464113241</v>
       </c>
       <c r="D9">
-        <v>0.005011956956584079</v>
+        <v>0.02418260296537821</v>
       </c>
       <c r="E9">
-        <v>-0.08606819945833902</v>
+        <v>-0.0824648247963537</v>
       </c>
       <c r="F9">
-        <v>-0.01752576517626077</v>
+        <v>-0.06384029022390589</v>
       </c>
       <c r="G9">
-        <v>0.02771415550890109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.02361347407554931</v>
+      </c>
+      <c r="H9">
+        <v>-0.0357835522068837</v>
+      </c>
+      <c r="I9">
+        <v>-0.01023702313108062</v>
+      </c>
+      <c r="J9">
+        <v>-0.01376031985431717</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.02091714410755949</v>
+        <v>0.003255838123181497</v>
       </c>
       <c r="C10">
-        <v>0.1614562825248645</v>
+        <v>0.1594045619433188</v>
       </c>
       <c r="D10">
-        <v>-0.00674299560462364</v>
+        <v>-0.01306282564231987</v>
       </c>
       <c r="E10">
-        <v>-0.03075773101974635</v>
+        <v>-0.04831161805938393</v>
       </c>
       <c r="F10">
-        <v>0.0111630546815801</v>
+        <v>-0.005648592886924986</v>
       </c>
       <c r="G10">
-        <v>-0.01444534250531697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.01217596875126424</v>
+      </c>
+      <c r="H10">
+        <v>0.01850206171674112</v>
+      </c>
+      <c r="I10">
+        <v>-0.1088392116903756</v>
+      </c>
+      <c r="J10">
+        <v>-0.06448447883853443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.05947294887686042</v>
+        <v>0.05075936546873086</v>
       </c>
       <c r="C11">
-        <v>0.00290977025291545</v>
+        <v>-0.01548644926433555</v>
       </c>
       <c r="D11">
-        <v>-0.01599185008980681</v>
+        <v>0.004677647717250663</v>
       </c>
       <c r="E11">
-        <v>-0.04119095284857364</v>
+        <v>-0.04895866888981665</v>
       </c>
       <c r="F11">
-        <v>0.005491471823547654</v>
+        <v>-0.005994570838113683</v>
       </c>
       <c r="G11">
-        <v>-0.00937968474997997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.00198376216452428</v>
+      </c>
+      <c r="H11">
+        <v>-0.0204246836540617</v>
+      </c>
+      <c r="I11">
+        <v>0.01144995152080687</v>
+      </c>
+      <c r="J11">
+        <v>0.002372221214064926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.04986905984558961</v>
+        <v>0.04892308075944476</v>
       </c>
       <c r="C12">
-        <v>-0.001723189930685572</v>
+        <v>-0.0167641485081246</v>
       </c>
       <c r="D12">
-        <v>-0.008005853347782303</v>
+        <v>0.007308765334721034</v>
       </c>
       <c r="E12">
-        <v>-0.02635653157814229</v>
+        <v>-0.02547000120349639</v>
       </c>
       <c r="F12">
-        <v>0.01044092408638249</v>
+        <v>-0.01979554626268517</v>
       </c>
       <c r="G12">
-        <v>0.002480735058597261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.002960037585557054</v>
+      </c>
+      <c r="H12">
+        <v>-0.008723769030292804</v>
+      </c>
+      <c r="I12">
+        <v>0.0187944436303221</v>
+      </c>
+      <c r="J12">
+        <v>0.004311443469499516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.0579107329134539</v>
+        <v>0.03981224364828841</v>
       </c>
       <c r="C13">
-        <v>-0.01198123637339295</v>
+        <v>-0.01823663608110113</v>
       </c>
       <c r="D13">
-        <v>-0.03217590679211345</v>
+        <v>0.004544122815680403</v>
       </c>
       <c r="E13">
-        <v>-0.1071745615638489</v>
+        <v>-0.1038635194091281</v>
       </c>
       <c r="F13">
-        <v>0.006195593832121342</v>
+        <v>-0.01525163468037171</v>
       </c>
       <c r="G13">
-        <v>0.02813821719192084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.001215680517201518</v>
+      </c>
+      <c r="H13">
+        <v>-0.05792627700874904</v>
+      </c>
+      <c r="I13">
+        <v>-0.03440802717516932</v>
+      </c>
+      <c r="J13">
+        <v>0.01663324588024895</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>-0.03737217709793887</v>
+        <v>0.02925258404057723</v>
       </c>
       <c r="C14">
-        <v>-0.003431023256250838</v>
+        <v>-0.01170687132438787</v>
       </c>
       <c r="D14">
-        <v>0.01378509190043321</v>
+        <v>0.02104185904919136</v>
       </c>
       <c r="E14">
-        <v>-0.02370585395494668</v>
+        <v>-0.0357734975236573</v>
       </c>
       <c r="F14">
-        <v>0.006747375964806577</v>
+        <v>-0.02264918361262495</v>
       </c>
       <c r="G14">
-        <v>0.03706627550499075</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01413441624048817</v>
+      </c>
+      <c r="H14">
+        <v>-0.0638563857263421</v>
+      </c>
+      <c r="I14">
+        <v>-0.02249100654215909</v>
+      </c>
+      <c r="J14">
+        <v>-0.01348799785721886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.05199036799927937</v>
+        <v>0.04316504340198099</v>
       </c>
       <c r="C16">
-        <v>-0.01547022737590565</v>
+        <v>-0.02488308988098188</v>
       </c>
       <c r="D16">
-        <v>-0.02668765364968254</v>
+        <v>-0.001853298887120117</v>
       </c>
       <c r="E16">
-        <v>-0.03878759980212487</v>
+        <v>-0.04581942589465698</v>
       </c>
       <c r="F16">
-        <v>0.008193554832582575</v>
+        <v>-0.009525956196830498</v>
       </c>
       <c r="G16">
-        <v>-0.005675388086992235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.00462761133258542</v>
+      </c>
+      <c r="H16">
+        <v>-0.0196084798732589</v>
+      </c>
+      <c r="I16">
+        <v>0.01392876211473511</v>
+      </c>
+      <c r="J16">
+        <v>-0.00244926725207526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>-0.04588434089575102</v>
+        <v>0.0473836780573953</v>
       </c>
       <c r="C19">
-        <v>-0.02630236112730206</v>
+        <v>-0.03063970786033171</v>
       </c>
       <c r="D19">
-        <v>-0.01945668573791756</v>
+        <v>0.006357544864372761</v>
       </c>
       <c r="E19">
-        <v>-0.0764917142203298</v>
+        <v>-0.09075591857280348</v>
       </c>
       <c r="F19">
-        <v>0.0135289818369506</v>
+        <v>-0.0373196029838599</v>
       </c>
       <c r="G19">
-        <v>0.05042632293246255</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.007304765501067324</v>
+      </c>
+      <c r="H19">
+        <v>-0.07729217671456011</v>
+      </c>
+      <c r="I19">
+        <v>-0.06859960620106414</v>
+      </c>
+      <c r="J19">
+        <v>0.000282048042527452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.03398072991362677</v>
+        <v>0.01820187284778457</v>
       </c>
       <c r="C20">
-        <v>-0.02962395663831188</v>
+        <v>-0.03085584106557143</v>
       </c>
       <c r="D20">
-        <v>-0.01092906610697014</v>
+        <v>0.01233130582469699</v>
       </c>
       <c r="E20">
-        <v>-0.07058965591453965</v>
+        <v>-0.06950605594614456</v>
       </c>
       <c r="F20">
-        <v>0.02300197740340788</v>
+        <v>-0.03883253042355644</v>
       </c>
       <c r="G20">
-        <v>0.04841727193704992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.009733046662710914</v>
+      </c>
+      <c r="H20">
+        <v>-0.07828045817203824</v>
+      </c>
+      <c r="I20">
+        <v>-0.01812296020236275</v>
+      </c>
+      <c r="J20">
+        <v>-0.02391238518853909</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.0376193557193874</v>
+        <v>0.01823638197962214</v>
       </c>
       <c r="C21">
-        <v>-0.01015757138138807</v>
+        <v>-0.01989251699000082</v>
       </c>
       <c r="D21">
-        <v>-0.0262899598121731</v>
+        <v>-0.01008374662699333</v>
       </c>
       <c r="E21">
-        <v>-0.08569668577482335</v>
+        <v>-0.07988152975185731</v>
       </c>
       <c r="F21">
-        <v>-0.0176423857990708</v>
+        <v>-0.03356014748907687</v>
       </c>
       <c r="G21">
-        <v>0.03578063727955404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.01626065177285507</v>
+      </c>
+      <c r="H21">
+        <v>-0.04991170942524048</v>
+      </c>
+      <c r="I21">
+        <v>-0.01497448420581349</v>
+      </c>
+      <c r="J21">
+        <v>0.02398574327678608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-0.04662961926580052</v>
+        <v>0.04113125782339977</v>
       </c>
       <c r="C24">
-        <v>-0.008626430905605036</v>
+        <v>-0.01442901312933746</v>
       </c>
       <c r="D24">
-        <v>-0.01466887579576599</v>
+        <v>0.004682710165516323</v>
       </c>
       <c r="E24">
-        <v>-0.05280625482366341</v>
+        <v>-0.04912821034239224</v>
       </c>
       <c r="F24">
-        <v>0.01040687654379658</v>
+        <v>-0.01048178806633881</v>
       </c>
       <c r="G24">
-        <v>-0.008900635606469219</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01100474038331205</v>
+      </c>
+      <c r="H24">
+        <v>-0.01667872732569778</v>
+      </c>
+      <c r="I24">
+        <v>0.01001376256764041</v>
+      </c>
+      <c r="J24">
+        <v>-0.002691006502194243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.05098620273507504</v>
+        <v>0.04453367820791049</v>
       </c>
       <c r="C25">
-        <v>0.002167698387378431</v>
+        <v>-0.01463829144139828</v>
       </c>
       <c r="D25">
-        <v>-0.01392720335421014</v>
+        <v>0.003576067047964751</v>
       </c>
       <c r="E25">
-        <v>-0.0396970866971746</v>
+        <v>-0.04792703048958085</v>
       </c>
       <c r="F25">
-        <v>0.008065359686320755</v>
+        <v>-0.01349661719378432</v>
       </c>
       <c r="G25">
-        <v>-0.01222213110627517</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.00544030844573072</v>
+      </c>
+      <c r="H25">
+        <v>-0.01007007777103855</v>
+      </c>
+      <c r="I25">
+        <v>0.01137803378776234</v>
+      </c>
+      <c r="J25">
+        <v>0.007337329444162924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.001077286418600399</v>
+        <v>0.008295483900781808</v>
       </c>
       <c r="C26">
-        <v>-0.01494238487601347</v>
+        <v>-0.01631149909968815</v>
       </c>
       <c r="D26">
-        <v>-0.003100425840347396</v>
+        <v>-0.004713052033822189</v>
       </c>
       <c r="E26">
-        <v>-0.05524056843402288</v>
+        <v>-0.05878953454220646</v>
       </c>
       <c r="F26">
-        <v>-0.006092937949473475</v>
+        <v>-0.00241321086189946</v>
       </c>
       <c r="G26">
-        <v>0.01655532956186518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.006121335841327675</v>
+      </c>
+      <c r="H26">
+        <v>-0.03781060718573343</v>
+      </c>
+      <c r="I26">
+        <v>0.0005116973007073476</v>
+      </c>
+      <c r="J26">
+        <v>-0.01486838210735928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>-0.1087446799784939</v>
+        <v>0.08923770188196367</v>
       </c>
       <c r="C27">
-        <v>-0.0008982159236031374</v>
+        <v>-0.01460976658293488</v>
       </c>
       <c r="D27">
-        <v>-0.0002924254575867833</v>
+        <v>0.02914585161825447</v>
       </c>
       <c r="E27">
-        <v>-0.1137352232756468</v>
+        <v>-0.08533602524129399</v>
       </c>
       <c r="F27">
-        <v>0.01512658107128414</v>
+        <v>-0.0493910373600957</v>
       </c>
       <c r="G27">
-        <v>-0.01640650251034491</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.003529370730506716</v>
+      </c>
+      <c r="H27">
+        <v>-0.01138359557318016</v>
+      </c>
+      <c r="I27">
+        <v>0.002473391867793547</v>
+      </c>
+      <c r="J27">
+        <v>-0.01923451224256182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.02515242277810259</v>
+        <v>0.009579321661322701</v>
       </c>
       <c r="C28">
-        <v>0.2351279255136777</v>
+        <v>0.229096669701078</v>
       </c>
       <c r="D28">
-        <v>-0.01814814962841467</v>
+        <v>-0.01943423864885258</v>
       </c>
       <c r="E28">
-        <v>-0.009313934746466095</v>
+        <v>-0.03656816690772337</v>
       </c>
       <c r="F28">
-        <v>0.00605049307056366</v>
+        <v>-0.0005431666254797369</v>
       </c>
       <c r="G28">
-        <v>-0.04392142051393574</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.01581289402415377</v>
+      </c>
+      <c r="H28">
+        <v>0.03983673148070096</v>
+      </c>
+      <c r="I28">
+        <v>-0.1424114918755212</v>
+      </c>
+      <c r="J28">
+        <v>-0.09411778532491921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>-0.01908692213530277</v>
+        <v>0.02004869339262748</v>
       </c>
       <c r="C29">
-        <v>-0.01412795457456268</v>
+        <v>-0.01760089103072009</v>
       </c>
       <c r="D29">
-        <v>0.0122097191404162</v>
+        <v>0.01768351552875615</v>
       </c>
       <c r="E29">
-        <v>-0.03966432602087586</v>
+        <v>-0.03430247926474964</v>
       </c>
       <c r="F29">
-        <v>-0.001271576925227696</v>
+        <v>-0.03342026980243791</v>
       </c>
       <c r="G29">
-        <v>0.04191253846440393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.01872649188660891</v>
+      </c>
+      <c r="H29">
+        <v>-0.06303854099049337</v>
+      </c>
+      <c r="I29">
+        <v>-0.01050682162155208</v>
+      </c>
+      <c r="J29">
+        <v>-0.01726697096008764</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.1041128195793329</v>
+        <v>0.1029790593489455</v>
       </c>
       <c r="C30">
-        <v>0.002298817557137277</v>
+        <v>-0.02612091256085831</v>
       </c>
       <c r="D30">
-        <v>-0.01265796155408181</v>
+        <v>0.03043752345781508</v>
       </c>
       <c r="E30">
-        <v>-0.1280877162639144</v>
+        <v>-0.1122574067427543</v>
       </c>
       <c r="F30">
-        <v>0.0192221408299257</v>
+        <v>-0.02062160080750627</v>
       </c>
       <c r="G30">
-        <v>-0.08429303411212309</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.02717631528711704</v>
+      </c>
+      <c r="H30">
+        <v>-0.009496988842378698</v>
+      </c>
+      <c r="I30">
+        <v>0.02676672889301628</v>
+      </c>
+      <c r="J30">
+        <v>0.0190060792607172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>-0.05413541976547892</v>
+        <v>0.05680493889619764</v>
       </c>
       <c r="C31">
-        <v>-0.008877438802235097</v>
+        <v>-0.0147836333408555</v>
       </c>
       <c r="D31">
-        <v>0.01652948736154279</v>
+        <v>0.01474338066447507</v>
       </c>
       <c r="E31">
-        <v>-0.003550116064255295</v>
+        <v>-0.01853173208549</v>
       </c>
       <c r="F31">
-        <v>-0.01067225116743546</v>
+        <v>0.0160954706016767</v>
       </c>
       <c r="G31">
-        <v>0.02019102991139341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03485462629286413</v>
+      </c>
+      <c r="H31">
+        <v>-0.05002313863308745</v>
+      </c>
+      <c r="I31">
+        <v>-0.01377212338037965</v>
+      </c>
+      <c r="J31">
+        <v>-0.01967274582983881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.06543160248577941</v>
+        <v>0.04817113967019693</v>
       </c>
       <c r="C32">
-        <v>-0.01685634090632239</v>
+        <v>-0.04066638398308178</v>
       </c>
       <c r="D32">
-        <v>-0.01374659119913632</v>
+        <v>0.01789579599211046</v>
       </c>
       <c r="E32">
-        <v>-0.1106665027802284</v>
+        <v>-0.09695215982929177</v>
       </c>
       <c r="F32">
-        <v>0.04202496484700395</v>
+        <v>-0.0467262349257633</v>
       </c>
       <c r="G32">
-        <v>0.01896726712028058</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01759316344533339</v>
+      </c>
+      <c r="H32">
+        <v>-0.06288256359492307</v>
+      </c>
+      <c r="I32">
+        <v>-0.03848759514199419</v>
+      </c>
+      <c r="J32">
+        <v>0.01846477429994576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>-0.06736445705847904</v>
+        <v>0.05901463648751572</v>
       </c>
       <c r="C33">
-        <v>-0.02206077771598113</v>
+        <v>-0.0378600198514684</v>
       </c>
       <c r="D33">
-        <v>-0.007344605094514535</v>
+        <v>0.00327612945678433</v>
       </c>
       <c r="E33">
-        <v>-0.08002791504999106</v>
+        <v>-0.08912697132231402</v>
       </c>
       <c r="F33">
-        <v>-0.01620086447790229</v>
+        <v>-0.01738639131452686</v>
       </c>
       <c r="G33">
-        <v>0.01505323636341192</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.01350884435059268</v>
+      </c>
+      <c r="H33">
+        <v>-0.05429048989384859</v>
+      </c>
+      <c r="I33">
+        <v>0.007765470804317777</v>
+      </c>
+      <c r="J33">
+        <v>-0.001800643266467831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>-0.04773895281611685</v>
+        <v>0.04278054292094353</v>
       </c>
       <c r="C34">
-        <v>-0.009281666526504199</v>
+        <v>-0.02016180357143016</v>
       </c>
       <c r="D34">
-        <v>-0.01224204486755967</v>
+        <v>0.008036057830105659</v>
       </c>
       <c r="E34">
-        <v>-0.02408592791440177</v>
+        <v>-0.03859506925936179</v>
       </c>
       <c r="F34">
-        <v>0.009056908250651436</v>
+        <v>-0.01000138119936064</v>
       </c>
       <c r="G34">
-        <v>0.008964220487739148</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.002884887516006197</v>
+      </c>
+      <c r="H34">
+        <v>-0.02296024384543355</v>
+      </c>
+      <c r="I34">
+        <v>0.005869055378682811</v>
+      </c>
+      <c r="J34">
+        <v>0.01083537930863272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.009893029824290319</v>
+        <v>0.01236122822243352</v>
       </c>
       <c r="C36">
-        <v>0.009431640267006432</v>
+        <v>-0.0001422255362636381</v>
       </c>
       <c r="D36">
-        <v>-0.0005610098975684694</v>
+        <v>0.005291847790561286</v>
       </c>
       <c r="E36">
-        <v>-0.02551926387236687</v>
+        <v>-0.02869177143626494</v>
       </c>
       <c r="F36">
-        <v>-0.001657183285598689</v>
+        <v>-0.01363420612990274</v>
       </c>
       <c r="G36">
-        <v>0.008046068962304002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01263462560918304</v>
+      </c>
+      <c r="H36">
+        <v>-0.03668344196349737</v>
+      </c>
+      <c r="I36">
+        <v>-0.01399737194532422</v>
+      </c>
+      <c r="J36">
+        <v>0.003344412602292264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.05334686930818711</v>
+        <v>0.03030831939663731</v>
       </c>
       <c r="C38">
-        <v>-0.001304948837289936</v>
+        <v>-0.007324399758023545</v>
       </c>
       <c r="D38">
-        <v>0.01522561642026969</v>
+        <v>0.007090885718009528</v>
       </c>
       <c r="E38">
-        <v>-0.03820574024591503</v>
+        <v>-0.04517002436163995</v>
       </c>
       <c r="F38">
-        <v>0.0002537578410239751</v>
+        <v>-0.02274874147533858</v>
       </c>
       <c r="G38">
-        <v>0.02033337783620245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01554721684975159</v>
+      </c>
+      <c r="H38">
+        <v>-0.01250132613902845</v>
+      </c>
+      <c r="I38">
+        <v>-0.01057215717059762</v>
+      </c>
+      <c r="J38">
+        <v>0.01271712298873429</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>-0.07665126791746342</v>
+        <v>0.06339832353386514</v>
       </c>
       <c r="C39">
-        <v>-0.006148370364834294</v>
+        <v>-0.02749449005820165</v>
       </c>
       <c r="D39">
-        <v>-0.009433549390873392</v>
+        <v>0.01833792075704166</v>
       </c>
       <c r="E39">
-        <v>-0.0489213845027134</v>
+        <v>-0.06322630578418349</v>
       </c>
       <c r="F39">
-        <v>-0.006114251324967726</v>
+        <v>-0.004918020581773945</v>
       </c>
       <c r="G39">
-        <v>-0.01447772164070837</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.00383268033264525</v>
+      </c>
+      <c r="H39">
+        <v>-0.02099347787249338</v>
+      </c>
+      <c r="I39">
+        <v>0.01840761092308327</v>
+      </c>
+      <c r="J39">
+        <v>0.01827896167499892</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>-0.06970329463681328</v>
+        <v>0.05543795261324427</v>
       </c>
       <c r="C40">
-        <v>-0.02483263326931841</v>
+        <v>-0.03144580257988476</v>
       </c>
       <c r="D40">
-        <v>-0.02428450208838452</v>
+        <v>0.02060373566542726</v>
       </c>
       <c r="E40">
-        <v>-0.1145739923182932</v>
+        <v>-0.1107755449388069</v>
       </c>
       <c r="F40">
-        <v>-0.002798817618008033</v>
+        <v>-0.01063415617204604</v>
       </c>
       <c r="G40">
-        <v>0.06745096749670239</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.007306545750748794</v>
+      </c>
+      <c r="H40">
+        <v>-0.08315096571889492</v>
+      </c>
+      <c r="I40">
+        <v>-0.02573855955180087</v>
+      </c>
+      <c r="J40">
+        <v>0.004319013839105502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.003170657092390809</v>
+        <v>0.0001839997976947222</v>
       </c>
       <c r="C41">
-        <v>-0.006543512151362956</v>
+        <v>-0.009366545764581288</v>
       </c>
       <c r="D41">
-        <v>0.01171876357663723</v>
+        <v>0.003173880097147362</v>
       </c>
       <c r="E41">
-        <v>-0.02391388652887099</v>
+        <v>-0.0199470818612852</v>
       </c>
       <c r="F41">
-        <v>-0.02186760341312009</v>
+        <v>-0.009840813020867362</v>
       </c>
       <c r="G41">
-        <v>0.02782870989233188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03016555714708885</v>
+      </c>
+      <c r="H41">
+        <v>-0.04125991244949467</v>
+      </c>
+      <c r="I41">
+        <v>-0.01792768648700925</v>
+      </c>
+      <c r="J41">
+        <v>-0.03008898846070454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>-0.1490242686481414</v>
+        <v>0.2467176540761916</v>
       </c>
       <c r="C42">
-        <v>-0.1600393987532783</v>
+        <v>-0.1284095134001819</v>
       </c>
       <c r="D42">
-        <v>-0.9089632582659108</v>
+        <v>-0.9189013262209519</v>
       </c>
       <c r="E42">
-        <v>0.1934792431073254</v>
+        <v>0.1048107892277358</v>
       </c>
       <c r="F42">
-        <v>-0.01656361851079849</v>
+        <v>0.1887671635599203</v>
       </c>
       <c r="G42">
-        <v>-0.148955651267079</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.00665491171134847</v>
+      </c>
+      <c r="H42">
+        <v>0.009477713224875846</v>
+      </c>
+      <c r="I42">
+        <v>-0.03329706475161064</v>
+      </c>
+      <c r="J42">
+        <v>-0.04935748804536358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>-0.008346759330440613</v>
+        <v>0.001424783245930261</v>
       </c>
       <c r="C43">
-        <v>-0.008912346608511602</v>
+        <v>-0.01259919484317743</v>
       </c>
       <c r="D43">
-        <v>0.01196170085249089</v>
+        <v>0.005163946485239638</v>
       </c>
       <c r="E43">
-        <v>-0.03855571143731767</v>
+        <v>-0.03101791781717534</v>
       </c>
       <c r="F43">
-        <v>0.008914108610924917</v>
+        <v>-0.008513371699658483</v>
       </c>
       <c r="G43">
-        <v>0.02324494319997235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.008114251770807603</v>
+      </c>
+      <c r="H43">
+        <v>-0.03734320846760942</v>
+      </c>
+      <c r="I43">
+        <v>-0.008615926390647387</v>
+      </c>
+      <c r="J43">
+        <v>-0.02241707767214368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.04378081897629979</v>
+        <v>0.02868947279396443</v>
       </c>
       <c r="C44">
-        <v>-0.02670942065324455</v>
+        <v>-0.03010487673995993</v>
       </c>
       <c r="D44">
-        <v>-0.017647365044991</v>
+        <v>0.0004385193440179066</v>
       </c>
       <c r="E44">
-        <v>-0.1190815220648515</v>
+        <v>-0.1174166259182722</v>
       </c>
       <c r="F44">
-        <v>-0.03723276243651522</v>
+        <v>-0.04145995307273707</v>
       </c>
       <c r="G44">
-        <v>0.1024202443736271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.02802820774941473</v>
+      </c>
+      <c r="H44">
+        <v>-0.1158985618782213</v>
+      </c>
+      <c r="I44">
+        <v>-0.04045339390359544</v>
+      </c>
+      <c r="J44">
+        <v>-0.007504369258657782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>-0.02098454343648445</v>
+        <v>0.02123641085057493</v>
       </c>
       <c r="C46">
-        <v>-0.01018822309856319</v>
+        <v>-0.02239581028953567</v>
       </c>
       <c r="D46">
-        <v>0.01867833363698152</v>
+        <v>0.01630271569895894</v>
       </c>
       <c r="E46">
-        <v>-0.03148051017630087</v>
+        <v>-0.04663342840752536</v>
       </c>
       <c r="F46">
-        <v>-0.02006341185194819</v>
+        <v>-0.01754175323773684</v>
       </c>
       <c r="G46">
-        <v>0.03991088748012562</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.01933180281175356</v>
+      </c>
+      <c r="H46">
+        <v>-0.06477820514060606</v>
+      </c>
+      <c r="I46">
+        <v>-0.007194380627089141</v>
+      </c>
+      <c r="J46">
+        <v>-0.0363310993827666</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.07765341525800722</v>
+        <v>0.0870344730821359</v>
       </c>
       <c r="C47">
-        <v>-0.003096543702010517</v>
+        <v>-0.0122467611398171</v>
       </c>
       <c r="D47">
-        <v>0.01751628147990359</v>
+        <v>0.02099038859203067</v>
       </c>
       <c r="E47">
-        <v>-0.0006189528544497874</v>
+        <v>-0.006258144683414842</v>
       </c>
       <c r="F47">
-        <v>-0.007602270277897883</v>
+        <v>0.002959569079552961</v>
       </c>
       <c r="G47">
-        <v>0.04089118754341278</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.03090882569414946</v>
+      </c>
+      <c r="H47">
+        <v>-0.06946079839631578</v>
+      </c>
+      <c r="I47">
+        <v>-0.01572832350732284</v>
+      </c>
+      <c r="J47">
+        <v>-0.02959097026082173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.0124811271682149</v>
+        <v>0.01340670274427409</v>
       </c>
       <c r="C48">
-        <v>-0.01438845114092455</v>
+        <v>-0.01755802638388732</v>
       </c>
       <c r="D48">
-        <v>0.006408942068578898</v>
+        <v>0.004280965125639597</v>
       </c>
       <c r="E48">
-        <v>-0.03941032368543758</v>
+        <v>-0.04027354547583877</v>
       </c>
       <c r="F48">
-        <v>-0.005682183289169593</v>
+        <v>-0.01522114780426827</v>
       </c>
       <c r="G48">
-        <v>0.006854775308052784</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.004880680073049029</v>
+      </c>
+      <c r="H48">
+        <v>-0.02636428949697834</v>
+      </c>
+      <c r="I48">
+        <v>-0.01225534000850193</v>
+      </c>
+      <c r="J48">
+        <v>-0.01569959023444649</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.07664591314100751</v>
+        <v>0.07999896996750237</v>
       </c>
       <c r="C50">
-        <v>-0.02841033265284997</v>
+        <v>-0.03427973187972931</v>
       </c>
       <c r="D50">
-        <v>0.01716751032979575</v>
+        <v>0.01704154822514437</v>
       </c>
       <c r="E50">
-        <v>0.01026020895004855</v>
+        <v>-0.01027475201944196</v>
       </c>
       <c r="F50">
-        <v>-0.01465797885738632</v>
+        <v>0.002930503499115213</v>
       </c>
       <c r="G50">
-        <v>0.01675747833802232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008434573966983818</v>
+      </c>
+      <c r="H50">
+        <v>-0.05173353120339252</v>
+      </c>
+      <c r="I50">
+        <v>-0.01981510879376499</v>
+      </c>
+      <c r="J50">
+        <v>0.001139971254745013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.06596303423769873</v>
+        <v>0.04776074760167162</v>
       </c>
       <c r="C51">
-        <v>0.0359649137770789</v>
+        <v>0.01325313581057266</v>
       </c>
       <c r="D51">
-        <v>0.001809664932664747</v>
+        <v>0.008169731591200158</v>
       </c>
       <c r="E51">
-        <v>-0.0808572305450225</v>
+        <v>-0.102436218636335</v>
       </c>
       <c r="F51">
-        <v>-0.0391716526362844</v>
+        <v>-0.0112170479721625</v>
       </c>
       <c r="G51">
-        <v>0.01861814447844116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04459424238515459</v>
+      </c>
+      <c r="H51">
+        <v>-0.0550951499023391</v>
+      </c>
+      <c r="I51">
+        <v>-0.02450865761461848</v>
+      </c>
+      <c r="J51">
+        <v>-0.0696329393520161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.1442450056727664</v>
+        <v>0.1288790390619566</v>
       </c>
       <c r="C53">
-        <v>-0.003101663455946563</v>
+        <v>-0.03118738319719385</v>
       </c>
       <c r="D53">
-        <v>0.04358981648757021</v>
+        <v>0.04594279560651906</v>
       </c>
       <c r="E53">
-        <v>-0.002801346652381546</v>
+        <v>0.01462105238408828</v>
       </c>
       <c r="F53">
-        <v>-0.01025502589744374</v>
+        <v>0.008577218814187633</v>
       </c>
       <c r="G53">
-        <v>0.02970882436636404</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03029915507094145</v>
+      </c>
+      <c r="H53">
+        <v>-0.016023900122223</v>
+      </c>
+      <c r="I53">
+        <v>0.01322733394595709</v>
+      </c>
+      <c r="J53">
+        <v>-0.08792236899183203</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.01927916736191116</v>
+        <v>0.0210999000942579</v>
       </c>
       <c r="C54">
-        <v>0.009903204912877458</v>
+        <v>-0.001000545550013551</v>
       </c>
       <c r="D54">
-        <v>0.01926339283739233</v>
+        <v>0.02418396163080051</v>
       </c>
       <c r="E54">
-        <v>-0.04566687781512614</v>
+        <v>-0.04023412240352054</v>
       </c>
       <c r="F54">
-        <v>-0.03303634262170867</v>
+        <v>-0.02713551561800683</v>
       </c>
       <c r="G54">
-        <v>0.0488068731160359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03366928707212389</v>
+      </c>
+      <c r="H54">
+        <v>-0.07044192361855246</v>
+      </c>
+      <c r="I54">
+        <v>-0.04013473094365622</v>
+      </c>
+      <c r="J54">
+        <v>-0.02902978913589866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.09584469922256494</v>
+        <v>0.1022759294311622</v>
       </c>
       <c r="C55">
-        <v>0.004940070309099046</v>
+        <v>-0.01494506200273394</v>
       </c>
       <c r="D55">
-        <v>0.03197109143042545</v>
+        <v>0.03008499944237747</v>
       </c>
       <c r="E55">
-        <v>-0.01885249440473558</v>
+        <v>0.01797115632527248</v>
       </c>
       <c r="F55">
-        <v>0.02084782862921918</v>
+        <v>-0.03099921139969629</v>
       </c>
       <c r="G55">
-        <v>0.02155832615955494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.003185507823525159</v>
+      </c>
+      <c r="H55">
+        <v>-0.03288448330934191</v>
+      </c>
+      <c r="I55">
+        <v>0.02212423650116789</v>
+      </c>
+      <c r="J55">
+        <v>-0.0722062097210909</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.1790541601924956</v>
+        <v>0.1694139590415568</v>
       </c>
       <c r="C56">
-        <v>0.02527239157246741</v>
+        <v>-0.01167050724148202</v>
       </c>
       <c r="D56">
-        <v>0.0925090221971252</v>
+        <v>0.08934014069675468</v>
       </c>
       <c r="E56">
-        <v>0.04428547218412913</v>
+        <v>0.06891306884605805</v>
       </c>
       <c r="F56">
-        <v>0.04372949416600318</v>
+        <v>0.002463332063247643</v>
       </c>
       <c r="G56">
-        <v>0.01405722325223834</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.01475057100903833</v>
+      </c>
+      <c r="H56">
+        <v>0.03251461708585487</v>
+      </c>
+      <c r="I56">
+        <v>0.05786603546233231</v>
+      </c>
+      <c r="J56">
+        <v>-0.07760952799866734</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-0.09335851922149534</v>
+        <v>0.07391703254745202</v>
       </c>
       <c r="C57">
-        <v>-0.0167172328897983</v>
+        <v>-0.02007074400501898</v>
       </c>
       <c r="D57">
-        <v>0.007100096568196836</v>
+        <v>0.009870257364614207</v>
       </c>
       <c r="E57">
-        <v>-0.07561112720834061</v>
+        <v>-0.07934300064233428</v>
       </c>
       <c r="F57">
-        <v>0.008656440210555703</v>
+        <v>-0.01710060598292703</v>
       </c>
       <c r="G57">
-        <v>0.03707989606319451</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.004096638805526293</v>
+      </c>
+      <c r="H57">
+        <v>-0.05043393168062639</v>
+      </c>
+      <c r="I57">
+        <v>0.01495211073825017</v>
+      </c>
+      <c r="J57">
+        <v>-0.009027966927960334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.1696252687447148</v>
+        <v>0.1937164587992192</v>
       </c>
       <c r="C58">
-        <v>0.004268912503901093</v>
+        <v>-0.03396480262874663</v>
       </c>
       <c r="D58">
-        <v>-0.07094711952887189</v>
+        <v>-0.003882831204954849</v>
       </c>
       <c r="E58">
-        <v>-0.06528994851435301</v>
+        <v>-0.1493309236741806</v>
       </c>
       <c r="F58">
-        <v>0.07915187874276149</v>
+        <v>-0.007769591718080414</v>
       </c>
       <c r="G58">
-        <v>0.2037591288520277</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1566233710881945</v>
+      </c>
+      <c r="H58">
+        <v>-0.3016269896547447</v>
+      </c>
+      <c r="I58">
+        <v>-0.1512428068971265</v>
+      </c>
+      <c r="J58">
+        <v>0.1681804665625494</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01514279368239763</v>
+        <v>0.01599473262642346</v>
       </c>
       <c r="C59">
-        <v>0.2042984937694148</v>
+        <v>0.2004430586953416</v>
       </c>
       <c r="D59">
-        <v>0.01706456916365662</v>
+        <v>0.01695302664001986</v>
       </c>
       <c r="E59">
-        <v>-0.03214692667835286</v>
+        <v>-0.05131606648515119</v>
       </c>
       <c r="F59">
-        <v>0.01039973421725472</v>
+        <v>0.01104363650411751</v>
       </c>
       <c r="G59">
-        <v>-0.04589527121298963</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0005472434372246771</v>
+      </c>
+      <c r="H59">
+        <v>0.02967483516876819</v>
+      </c>
+      <c r="I59">
+        <v>-0.0783685763901291</v>
+      </c>
+      <c r="J59">
+        <v>-0.03917894345421518</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1730159626905619</v>
+        <v>0.176279539216415</v>
       </c>
       <c r="C60">
-        <v>0.1295769267989494</v>
+        <v>0.07123716937894363</v>
       </c>
       <c r="D60">
-        <v>0.004497700458208033</v>
+        <v>0.02396198067642858</v>
       </c>
       <c r="E60">
-        <v>-0.1848669030005417</v>
+        <v>-0.207150501670984</v>
       </c>
       <c r="F60">
-        <v>0.003921825705711016</v>
+        <v>0.03153916004376081</v>
       </c>
       <c r="G60">
-        <v>-0.1595639202291863</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.06822747553361275</v>
+      </c>
+      <c r="H60">
+        <v>0.2266297985354393</v>
+      </c>
+      <c r="I60">
+        <v>0.1033393733427493</v>
+      </c>
+      <c r="J60">
+        <v>0.04746633923914841</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.05066295103886214</v>
+        <v>0.03923158794179572</v>
       </c>
       <c r="C61">
-        <v>-0.002097647041584218</v>
+        <v>-0.01555487625152468</v>
       </c>
       <c r="D61">
-        <v>-0.01386650054892852</v>
+        <v>0.001777153012504213</v>
       </c>
       <c r="E61">
-        <v>-0.04025366763495908</v>
+        <v>-0.04660027093678903</v>
       </c>
       <c r="F61">
-        <v>-0.003574538964533395</v>
+        <v>-0.005503901692854593</v>
       </c>
       <c r="G61">
-        <v>-0.03542307230896283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.0005939910245220217</v>
+      </c>
+      <c r="H61">
+        <v>-0.003815574140280442</v>
+      </c>
+      <c r="I61">
+        <v>0.02199863066688541</v>
+      </c>
+      <c r="J61">
+        <v>0.02982229091390359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>-0.03689478802530014</v>
+        <v>0.02958213958537426</v>
       </c>
       <c r="C63">
-        <v>0.01124956255757998</v>
+        <v>-0.00924483499806553</v>
       </c>
       <c r="D63">
-        <v>0.004433490901697473</v>
+        <v>0.007936624853534968</v>
       </c>
       <c r="E63">
-        <v>-0.04196089181253602</v>
+        <v>-0.03604192034139236</v>
       </c>
       <c r="F63">
-        <v>0.001500522566701946</v>
+        <v>-0.0146573820230496</v>
       </c>
       <c r="G63">
-        <v>0.01735170526573164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.005548749404724811</v>
+      </c>
+      <c r="H63">
+        <v>-0.04649022223168944</v>
+      </c>
+      <c r="I63">
+        <v>-0.01740471353337094</v>
+      </c>
+      <c r="J63">
+        <v>-0.04907612974157222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.09151835105084941</v>
+        <v>0.06684051397908437</v>
       </c>
       <c r="C64">
-        <v>-0.005986013860967407</v>
+        <v>-0.03046271847104239</v>
       </c>
       <c r="D64">
-        <v>0.04545991549498581</v>
+        <v>0.03572298703460962</v>
       </c>
       <c r="E64">
-        <v>-0.1137443763149019</v>
+        <v>-0.0672400064768225</v>
       </c>
       <c r="F64">
-        <v>-0.08877069734251827</v>
+        <v>-0.06417939026132072</v>
       </c>
       <c r="G64">
-        <v>-0.03372124462688963</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.07392886492540132</v>
+      </c>
+      <c r="H64">
+        <v>0.01627331175622997</v>
+      </c>
+      <c r="I64">
+        <v>0.02373169440912417</v>
+      </c>
+      <c r="J64">
+        <v>-0.07926303606764856</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01050612883820041</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.004841254739095986</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.002050012633819076</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.003225432006917452</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-9.872057218859585e-05</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.01365772745984479</v>
+      </c>
+      <c r="H65">
+        <v>-0.001685514155661393</v>
+      </c>
+      <c r="I65">
+        <v>-9.372790196130806e-06</v>
+      </c>
+      <c r="J65">
+        <v>-0.000154386872842098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>-0.1020916269752753</v>
+        <v>0.07485584508234354</v>
       </c>
       <c r="C66">
-        <v>-0.008149942774385946</v>
+        <v>-0.03714299722135778</v>
       </c>
       <c r="D66">
-        <v>0.02221366005252737</v>
+        <v>0.04081237315133993</v>
       </c>
       <c r="E66">
-        <v>-0.09623156222924989</v>
+        <v>-0.08888058466488445</v>
       </c>
       <c r="F66">
-        <v>-0.01011002916094174</v>
+        <v>-0.008446402775448673</v>
       </c>
       <c r="G66">
-        <v>-0.008124016107146933</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.003362843662427394</v>
+      </c>
+      <c r="H66">
+        <v>-0.01868286222919314</v>
+      </c>
+      <c r="I66">
+        <v>0.04221473702847152</v>
+      </c>
+      <c r="J66">
+        <v>0.013718857062968</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.05904312674545763</v>
+        <v>0.0399980124966843</v>
       </c>
       <c r="C67">
-        <v>0.02019299180559295</v>
+        <v>0.009891061443446885</v>
       </c>
       <c r="D67">
-        <v>0.004566775234964832</v>
+        <v>0.004871220510387269</v>
       </c>
       <c r="E67">
-        <v>-0.03074680053372767</v>
+        <v>-0.04107085688304947</v>
       </c>
       <c r="F67">
-        <v>0.001668734030453576</v>
+        <v>-0.009528326897310891</v>
       </c>
       <c r="G67">
-        <v>0.02254685462918826</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02179121018456705</v>
+      </c>
+      <c r="H67">
+        <v>0.0007815013012280186</v>
+      </c>
+      <c r="I67">
+        <v>0.02783182293644541</v>
+      </c>
+      <c r="J67">
+        <v>0.02220113644877142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01346494883367466</v>
+        <v>0.02354333624929024</v>
       </c>
       <c r="C68">
-        <v>0.2458090452396273</v>
+        <v>0.2378698422738487</v>
       </c>
       <c r="D68">
-        <v>-0.001188857283763555</v>
+        <v>0.007078681214736282</v>
       </c>
       <c r="E68">
-        <v>-0.01784725626812119</v>
+        <v>-0.03598543800892708</v>
       </c>
       <c r="F68">
-        <v>0.02335650915393704</v>
+        <v>-0.001502722563112576</v>
       </c>
       <c r="G68">
-        <v>-0.0343186467997534</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01359913702426499</v>
+      </c>
+      <c r="H68">
+        <v>0.0365348905598474</v>
+      </c>
+      <c r="I68">
+        <v>-0.154444804477698</v>
+      </c>
+      <c r="J68">
+        <v>-0.08931635629070213</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.06330282853248849</v>
+        <v>0.06821658627138202</v>
       </c>
       <c r="C69">
-        <v>-0.005558673573200194</v>
+        <v>-0.009931312875562362</v>
       </c>
       <c r="D69">
-        <v>0.02736540111378817</v>
+        <v>0.02671502210650348</v>
       </c>
       <c r="E69">
-        <v>-0.004032402448321835</v>
+        <v>-0.01363482113027563</v>
       </c>
       <c r="F69">
-        <v>0.0002193559600781491</v>
+        <v>0.0067059797062297</v>
       </c>
       <c r="G69">
-        <v>0.008998365495277346</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02181774780001412</v>
+      </c>
+      <c r="H69">
+        <v>-0.04950144211831541</v>
+      </c>
+      <c r="I69">
+        <v>0.000717123266603809</v>
+      </c>
+      <c r="J69">
+        <v>-0.01151996163053732</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.006364415037910447</v>
+        <v>0.03051621544207275</v>
       </c>
       <c r="C71">
-        <v>0.2357482433057933</v>
+        <v>0.2384836285588157</v>
       </c>
       <c r="D71">
-        <v>-0.009120584876387474</v>
+        <v>-0.01342704688315749</v>
       </c>
       <c r="E71">
-        <v>-0.03349007159260554</v>
+        <v>-0.05425280726533004</v>
       </c>
       <c r="F71">
-        <v>0.02910495440510846</v>
+        <v>0.02620007140566015</v>
       </c>
       <c r="G71">
-        <v>-0.1367276250652801</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.0003322533168072712</v>
+      </c>
+      <c r="H71">
+        <v>0.05110559979101675</v>
+      </c>
+      <c r="I71">
+        <v>-0.1598242501711123</v>
+      </c>
+      <c r="J71">
+        <v>-0.02865471143151239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.1012699400014867</v>
+        <v>0.1112410905072857</v>
       </c>
       <c r="C72">
-        <v>0.02680027336146994</v>
+        <v>0.01158118073946734</v>
       </c>
       <c r="D72">
-        <v>0.03456852365570264</v>
+        <v>0.06122196937383098</v>
       </c>
       <c r="E72">
-        <v>-0.06948486856083026</v>
+        <v>-0.08254627346384968</v>
       </c>
       <c r="F72">
-        <v>0.009291317150947238</v>
+        <v>-0.01937527253467622</v>
       </c>
       <c r="G72">
-        <v>0.0218460862450203</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0340147294369984</v>
+      </c>
+      <c r="H72">
+        <v>-0.002172515415997443</v>
+      </c>
+      <c r="I72">
+        <v>-0.01006802068379141</v>
+      </c>
+      <c r="J72">
+        <v>0.01818885325357804</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.2666748311974664</v>
+        <v>0.2693682261757935</v>
       </c>
       <c r="C73">
-        <v>0.2263306518562126</v>
+        <v>0.151294721743364</v>
       </c>
       <c r="D73">
-        <v>-0.04329691956567306</v>
+        <v>-0.002156494674946084</v>
       </c>
       <c r="E73">
-        <v>-0.26795132084201</v>
+        <v>-0.3212393579184071</v>
       </c>
       <c r="F73">
-        <v>0.06670156045181386</v>
+        <v>0.05971449293439983</v>
       </c>
       <c r="G73">
-        <v>-0.3951080672186936</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1600552144156614</v>
+      </c>
+      <c r="H73">
+        <v>0.4123388032712875</v>
+      </c>
+      <c r="I73">
+        <v>0.2306508212144005</v>
+      </c>
+      <c r="J73">
+        <v>0.3300856622385742</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.1524743664113705</v>
+        <v>0.1526918852517059</v>
       </c>
       <c r="C74">
-        <v>0.01531425797093408</v>
+        <v>-0.005593735604653964</v>
       </c>
       <c r="D74">
-        <v>0.05106332155080859</v>
+        <v>0.04643544207006875</v>
       </c>
       <c r="E74">
-        <v>-0.01569975749946441</v>
+        <v>0.02433523458593376</v>
       </c>
       <c r="F74">
-        <v>0.04494401102579674</v>
+        <v>0.0002488003973545245</v>
       </c>
       <c r="G74">
-        <v>-0.005439907570655095</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01728435695570537</v>
+      </c>
+      <c r="H74">
+        <v>0.02114365601571333</v>
+      </c>
+      <c r="I74">
+        <v>0.05693641695860001</v>
+      </c>
+      <c r="J74">
+        <v>-0.08308466145399575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.2377855056901997</v>
+        <v>0.2468202021411993</v>
       </c>
       <c r="C75">
-        <v>0.02320210758536559</v>
+        <v>-0.01312081762141924</v>
       </c>
       <c r="D75">
-        <v>0.07893080858976539</v>
+        <v>0.1026614763006764</v>
       </c>
       <c r="E75">
-        <v>0.091590709169107</v>
+        <v>0.1137281220085603</v>
       </c>
       <c r="F75">
-        <v>0.01476124303764976</v>
+        <v>0.03028775933925704</v>
       </c>
       <c r="G75">
-        <v>0.04745071556554601</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.02765178893089869</v>
+      </c>
+      <c r="H75">
+        <v>0.01590857403156533</v>
+      </c>
+      <c r="I75">
+        <v>0.05767575193763577</v>
+      </c>
+      <c r="J75">
+        <v>-0.1768208037124675</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.2377039284872963</v>
+        <v>0.260713709127207</v>
       </c>
       <c r="C76">
-        <v>0.02185647361928334</v>
+        <v>-0.00193604579530635</v>
       </c>
       <c r="D76">
-        <v>0.1169522357266112</v>
+        <v>0.1229371254476554</v>
       </c>
       <c r="E76">
-        <v>0.06007657269164777</v>
+        <v>0.1306633231808571</v>
       </c>
       <c r="F76">
-        <v>0.03020071172774751</v>
+        <v>-0.00245508017129409</v>
       </c>
       <c r="G76">
-        <v>0.01765318083988821</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.01639308991347685</v>
+      </c>
+      <c r="H76">
+        <v>0.008013640878806275</v>
+      </c>
+      <c r="I76">
+        <v>0.1165325922532847</v>
+      </c>
+      <c r="J76">
+        <v>-0.1586462646703336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.1217070091702731</v>
+        <v>0.1318094424731801</v>
       </c>
       <c r="C77">
-        <v>-0.001946744016885768</v>
+        <v>-0.028615857850759</v>
       </c>
       <c r="D77">
-        <v>-0.09492556472095277</v>
+        <v>-0.04836570913982872</v>
       </c>
       <c r="E77">
-        <v>-0.1643567266648492</v>
+        <v>-0.166417388761102</v>
       </c>
       <c r="F77">
-        <v>0.02283071830595533</v>
+        <v>-0.06583271600554157</v>
       </c>
       <c r="G77">
-        <v>0.130423658074576</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01908038842380957</v>
+      </c>
+      <c r="H77">
+        <v>-0.1493010057568686</v>
+      </c>
+      <c r="I77">
+        <v>-0.1283614799945437</v>
+      </c>
+      <c r="J77">
+        <v>-0.1081581530493152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.0933632943061989</v>
+        <v>0.08937426647889547</v>
       </c>
       <c r="C78">
-        <v>-0.02274068327470826</v>
+        <v>-0.04784209502362905</v>
       </c>
       <c r="D78">
-        <v>-0.03504941050400782</v>
+        <v>-0.002027554875423144</v>
       </c>
       <c r="E78">
-        <v>-0.08142893720678331</v>
+        <v>-0.08937869422093905</v>
       </c>
       <c r="F78">
-        <v>0.008215441389688679</v>
+        <v>-0.04003620086877234</v>
       </c>
       <c r="G78">
-        <v>-0.02766841502480656</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.01176816111817328</v>
+      </c>
+      <c r="H78">
+        <v>-0.01499281158476175</v>
+      </c>
+      <c r="I78">
+        <v>-0.02661368170815545</v>
+      </c>
+      <c r="J78">
+        <v>-0.0361864074646105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>-0.08108989909372673</v>
+        <v>0.08872381597306793</v>
       </c>
       <c r="C80">
-        <v>0.01367796971371529</v>
+        <v>0.07153390612285569</v>
       </c>
       <c r="D80">
-        <v>-0.02583160079171211</v>
+        <v>-0.1645666362163663</v>
       </c>
       <c r="E80">
-        <v>0.02593381473807838</v>
+        <v>0.2062933475407485</v>
       </c>
       <c r="F80">
-        <v>0.01160296340784783</v>
+        <v>-0.9295085305574573</v>
       </c>
       <c r="G80">
-        <v>0.3177161410300134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.02537348770024531</v>
+      </c>
+      <c r="H80">
+        <v>0.1530650805308282</v>
+      </c>
+      <c r="I80">
+        <v>0.007959857665874037</v>
+      </c>
+      <c r="J80">
+        <v>0.1055087179729495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.1646627204676794</v>
+        <v>0.1739792788311562</v>
       </c>
       <c r="C81">
-        <v>0.01431715876781781</v>
+        <v>-0.003378103591406079</v>
       </c>
       <c r="D81">
-        <v>0.07181994159558094</v>
+        <v>0.08741694165205686</v>
       </c>
       <c r="E81">
-        <v>0.1030276516490719</v>
+        <v>0.1332270573062123</v>
       </c>
       <c r="F81">
-        <v>0.0402946762359831</v>
+        <v>0.03269087346134204</v>
       </c>
       <c r="G81">
-        <v>0.03268965784774958</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.0112180532933713</v>
+      </c>
+      <c r="H81">
+        <v>0.01114673437475851</v>
+      </c>
+      <c r="I81">
+        <v>0.05994243393385505</v>
+      </c>
+      <c r="J81">
+        <v>-0.1252687761687792</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.07826743219343919</v>
+        <v>0.0647185687417588</v>
       </c>
       <c r="C83">
-        <v>-0.01747511375086596</v>
+        <v>-0.03154095509222743</v>
       </c>
       <c r="D83">
-        <v>-0.09672249801092346</v>
+        <v>-0.04571265926420897</v>
       </c>
       <c r="E83">
-        <v>-0.06309986273261158</v>
+        <v>-0.07055616428780843</v>
       </c>
       <c r="F83">
-        <v>-0.06023295191331477</v>
+        <v>0.001673556436185572</v>
       </c>
       <c r="G83">
-        <v>0.04439760393999218</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.04899223975960613</v>
+      </c>
+      <c r="H83">
+        <v>-0.04499748265644652</v>
+      </c>
+      <c r="I83">
+        <v>0.01291480178889147</v>
+      </c>
+      <c r="J83">
+        <v>-0.08621567667307559</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.2485861297751605</v>
+        <v>0.2583400666980192</v>
       </c>
       <c r="C85">
-        <v>-0.03928422986915391</v>
+        <v>-0.04795773670365069</v>
       </c>
       <c r="D85">
-        <v>0.07028251800401029</v>
+        <v>0.08552740865013728</v>
       </c>
       <c r="E85">
-        <v>0.09991715937238925</v>
+        <v>0.1390674683396295</v>
       </c>
       <c r="F85">
-        <v>0.005140747565970121</v>
+        <v>-0.00271877360886086</v>
       </c>
       <c r="G85">
-        <v>0.07230558050171575</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.02187165188597436</v>
+      </c>
+      <c r="H85">
+        <v>-0.02047879005152976</v>
+      </c>
+      <c r="I85">
+        <v>0.08513373390381189</v>
+      </c>
+      <c r="J85">
+        <v>-0.202502866504481</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.04691521605276376</v>
+        <v>0.03110213630466368</v>
       </c>
       <c r="C86">
-        <v>-0.02419906768413228</v>
+        <v>-0.03857317012598493</v>
       </c>
       <c r="D86">
-        <v>0.001682310261740264</v>
+        <v>0.006231491047629768</v>
       </c>
       <c r="E86">
-        <v>-0.05331987794004884</v>
+        <v>-0.05766120274874206</v>
       </c>
       <c r="F86">
-        <v>0.009119739643818715</v>
+        <v>-0.03824934198567002</v>
       </c>
       <c r="G86">
-        <v>0.02040873144850629</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.006806229632975739</v>
+      </c>
+      <c r="H86">
+        <v>-0.0385982929488753</v>
+      </c>
+      <c r="I86">
+        <v>-0.07603798154330484</v>
+      </c>
+      <c r="J86">
+        <v>0.0007823630316814633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.03221148495354234</v>
+        <v>0.03925080131853948</v>
       </c>
       <c r="C87">
-        <v>0.05154285100300209</v>
+        <v>0.02533003776686035</v>
       </c>
       <c r="D87">
-        <v>0.004993455481774383</v>
+        <v>0.001435292775778402</v>
       </c>
       <c r="E87">
-        <v>-0.05552027423379731</v>
+        <v>-0.08546376936683057</v>
       </c>
       <c r="F87">
-        <v>-0.01258977079557695</v>
+        <v>-0.02215084283646376</v>
       </c>
       <c r="G87">
-        <v>-0.1616118967851591</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.006276370033223012</v>
+      </c>
+      <c r="H87">
+        <v>0.01435269024691774</v>
+      </c>
+      <c r="I87">
+        <v>-0.04229739934058666</v>
+      </c>
+      <c r="J87">
+        <v>0.0997472366367457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.03417527427813519</v>
+        <v>0.02095553416206143</v>
       </c>
       <c r="C88">
-        <v>-0.02037836579873493</v>
+        <v>-0.0170872428311861</v>
       </c>
       <c r="D88">
-        <v>0.0058555044892276</v>
+        <v>0.01242278337254105</v>
       </c>
       <c r="E88">
-        <v>-0.009295686074466642</v>
+        <v>-0.004362742906096065</v>
       </c>
       <c r="F88">
-        <v>0.006090385631159006</v>
+        <v>-0.02103084457607681</v>
       </c>
       <c r="G88">
-        <v>0.0625499589220732</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02771517339650655</v>
+      </c>
+      <c r="H88">
+        <v>-0.04497510418155973</v>
+      </c>
+      <c r="I88">
+        <v>0.01085105740556211</v>
+      </c>
+      <c r="J88">
+        <v>0.01871684261640636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.03049294825617519</v>
+        <v>0.03625331427080728</v>
       </c>
       <c r="C89">
-        <v>0.4358120076027935</v>
+        <v>0.4030385273463712</v>
       </c>
       <c r="D89">
-        <v>-0.08468820931432244</v>
+        <v>-0.04186977267130126</v>
       </c>
       <c r="E89">
-        <v>0.04750224269789459</v>
+        <v>-0.04170612231597538</v>
       </c>
       <c r="F89">
-        <v>-0.02921431409423318</v>
+        <v>0.04329968596983592</v>
       </c>
       <c r="G89">
-        <v>0.03014818499664331</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0718071069151127</v>
+      </c>
+      <c r="H89">
+        <v>-0.007493266883214286</v>
+      </c>
+      <c r="I89">
+        <v>-0.2357978325257163</v>
+      </c>
+      <c r="J89">
+        <v>-0.1681298264193816</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.03176194452324463</v>
+        <v>0.01749458745441165</v>
       </c>
       <c r="C90">
-        <v>0.3088707464055456</v>
+        <v>0.3326065930286166</v>
       </c>
       <c r="D90">
-        <v>-0.01740915109157468</v>
+        <v>-0.02090963605317471</v>
       </c>
       <c r="E90">
-        <v>-0.01375711613076648</v>
+        <v>-0.02452887357360036</v>
       </c>
       <c r="F90">
-        <v>0.01753220541470053</v>
+        <v>-0.002641992080785851</v>
       </c>
       <c r="G90">
-        <v>-0.07182714272455827</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.00995446200284182</v>
+      </c>
+      <c r="H90">
+        <v>0.04676150782316505</v>
+      </c>
+      <c r="I90">
+        <v>-0.1676916481289657</v>
+      </c>
+      <c r="J90">
+        <v>-0.1208674237206157</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.313546700982158</v>
+        <v>0.3225574395514065</v>
       </c>
       <c r="C91">
-        <v>-0.01008171479007572</v>
+        <v>-0.02879374067199769</v>
       </c>
       <c r="D91">
-        <v>0.1008962403504024</v>
+        <v>0.1030783022143941</v>
       </c>
       <c r="E91">
-        <v>0.2288005708303979</v>
+        <v>0.2583570873027793</v>
       </c>
       <c r="F91">
-        <v>0.05242624666063822</v>
+        <v>0.04671887248530282</v>
       </c>
       <c r="G91">
-        <v>0.1963719692301353</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.0179996171509132</v>
+      </c>
+      <c r="H91">
+        <v>0.008756511465792491</v>
+      </c>
+      <c r="I91">
+        <v>0.1472223673742435</v>
+      </c>
+      <c r="J91">
+        <v>-0.3438256747237992</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.04288433593307154</v>
+        <v>0.05606775934350912</v>
       </c>
       <c r="C92">
-        <v>0.4473555747698431</v>
+        <v>0.4775815735441815</v>
       </c>
       <c r="D92">
-        <v>-0.1892297447903556</v>
+        <v>-0.07198666641688346</v>
       </c>
       <c r="E92">
-        <v>0.1524797189460211</v>
+        <v>0.1413660201397074</v>
       </c>
       <c r="F92">
-        <v>0.0532662360066795</v>
+        <v>0.02047710679092299</v>
       </c>
       <c r="G92">
-        <v>0.5136484870123151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04968788517465036</v>
+      </c>
+      <c r="H92">
+        <v>-0.568750494054493</v>
+      </c>
+      <c r="I92">
+        <v>0.5403309996147952</v>
+      </c>
+      <c r="J92">
+        <v>0.2937545524216423</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.04184300708952512</v>
+        <v>0.01833455201971549</v>
       </c>
       <c r="C93">
-        <v>0.3605583124639988</v>
+        <v>0.4044761810570383</v>
       </c>
       <c r="D93">
-        <v>-0.05877708337132803</v>
+        <v>-0.04999832846274017</v>
       </c>
       <c r="E93">
-        <v>0.06697577362322556</v>
+        <v>0.02857341206620401</v>
       </c>
       <c r="F93">
-        <v>0.005036148595745857</v>
+        <v>0.02444145367303336</v>
       </c>
       <c r="G93">
-        <v>0.02005049743780139</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04297414342271134</v>
+      </c>
+      <c r="H93">
+        <v>0.05917243881753206</v>
+      </c>
+      <c r="I93">
+        <v>-0.1639163367044169</v>
+      </c>
+      <c r="J93">
+        <v>-0.1600640880245726</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.3209847955587929</v>
+        <v>0.3317710836632013</v>
       </c>
       <c r="C94">
-        <v>-0.01195086324533244</v>
+        <v>-0.02243264600553472</v>
       </c>
       <c r="D94">
-        <v>0.1102429280264218</v>
+        <v>0.1580369370130035</v>
       </c>
       <c r="E94">
-        <v>0.5693801574241016</v>
+        <v>0.427114795850131</v>
       </c>
       <c r="F94">
-        <v>0.3271047607258234</v>
+        <v>0.1253654124846832</v>
       </c>
       <c r="G94">
-        <v>-0.1843972593774301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1902857950910219</v>
+      </c>
+      <c r="H94">
+        <v>-0.05090762706762519</v>
+      </c>
+      <c r="I94">
+        <v>-0.4972274468449848</v>
+      </c>
+      <c r="J94">
+        <v>0.5260285584267739</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.1896932263085258</v>
+        <v>0.1473099002376914</v>
       </c>
       <c r="C95">
-        <v>0.05591263335595866</v>
+        <v>-0.0473600866007854</v>
       </c>
       <c r="D95">
-        <v>0.04839580906526175</v>
+        <v>0.03137868150779257</v>
       </c>
       <c r="E95">
-        <v>0.2017534372003377</v>
+        <v>-0.01123384860781757</v>
       </c>
       <c r="F95">
-        <v>-0.9126869206341759</v>
+        <v>0.07123891510902748</v>
       </c>
       <c r="G95">
-        <v>-0.03078111576082177</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.9254949003957277</v>
+      </c>
+      <c r="H95">
+        <v>0.0949942226130152</v>
+      </c>
+      <c r="I95">
+        <v>-0.05849740715155272</v>
+      </c>
+      <c r="J95">
+        <v>0.2265012938384328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.2078226261235136</v>
+        <v>0.2055443218591392</v>
       </c>
       <c r="C98">
-        <v>0.1529412500900632</v>
+        <v>0.09785718180050763</v>
       </c>
       <c r="D98">
-        <v>-0.02556085066739859</v>
+        <v>-0.007539314083716078</v>
       </c>
       <c r="E98">
-        <v>-0.1011403942411072</v>
+        <v>-0.1668399612177458</v>
       </c>
       <c r="F98">
-        <v>0.01066501686673943</v>
+        <v>0.06712351672765293</v>
       </c>
       <c r="G98">
-        <v>-0.2464787691500935</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07409623202614164</v>
+      </c>
+      <c r="H98">
+        <v>0.2942553954000134</v>
+      </c>
+      <c r="I98">
+        <v>0.1883498680070835</v>
+      </c>
+      <c r="J98">
+        <v>0.1251167919580869</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>-0.01897924933076127</v>
+        <v>0.01354076282970175</v>
       </c>
       <c r="C101">
-        <v>-0.01460339040061881</v>
+        <v>-0.02806387773015701</v>
       </c>
       <c r="D101">
-        <v>0.0136694708405875</v>
+        <v>0.02357865675636331</v>
       </c>
       <c r="E101">
-        <v>-0.04049890643618503</v>
+        <v>-0.05882278391937567</v>
       </c>
       <c r="F101">
-        <v>-0.001234553818530797</v>
+        <v>-0.03822835258134391</v>
       </c>
       <c r="G101">
-        <v>0.04218065955760465</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.0007216048262718318</v>
+      </c>
+      <c r="H101">
+        <v>-0.1248915390589903</v>
+      </c>
+      <c r="I101">
+        <v>-0.01486081752461872</v>
+      </c>
+      <c r="J101">
+        <v>0.004041087365962312</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.1206351648969869</v>
+        <v>0.1205901775858041</v>
       </c>
       <c r="C102">
-        <v>0.002099461384518869</v>
+        <v>-0.02340408079065676</v>
       </c>
       <c r="D102">
-        <v>0.05202282490576025</v>
+        <v>0.05293624148234216</v>
       </c>
       <c r="E102">
-        <v>0.05999096419170553</v>
+        <v>0.08098385768623875</v>
       </c>
       <c r="F102">
-        <v>-0.03449267393681865</v>
+        <v>0.001508593917353599</v>
       </c>
       <c r="G102">
-        <v>0.01511018475134215</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.04398760403891321</v>
+      </c>
+      <c r="H102">
+        <v>0.007414647405921104</v>
+      </c>
+      <c r="I102">
+        <v>-0.001338567126931387</v>
+      </c>
+      <c r="J102">
+        <v>-0.06368666634438121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>-0.01560634110827307</v>
+        <v>0.02184131732158582</v>
       </c>
       <c r="C103">
-        <v>-0.001920696018069479</v>
+        <v>-0.005396579989269711</v>
       </c>
       <c r="D103">
-        <v>0.01717029336499021</v>
+        <v>0.01754972399784593</v>
       </c>
       <c r="E103">
-        <v>0.02753746645026463</v>
+        <v>0.01739968652414261</v>
       </c>
       <c r="F103">
-        <v>0.006940282398274664</v>
+        <v>0.0006902500217138628</v>
       </c>
       <c r="G103">
-        <v>-0.01009844279795399</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.01588457617137863</v>
+      </c>
+      <c r="H103">
+        <v>-0.001667240850001818</v>
+      </c>
+      <c r="I103">
+        <v>-0.02375690251295576</v>
+      </c>
+      <c r="J103">
+        <v>-0.002978938018757199</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
